--- a/project/excel/linkml_common.xlsx
+++ b/project/excel/linkml_common.xlsx
@@ -53,66 +53,67 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PostalAddress" sheetId="44" state="visible" r:id="rId44"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GeoPointLocation" sheetId="45" state="visible" r:id="rId45"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GeoBoxLocation" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Observation" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="QuantityKind" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quantity" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleQuantity" sheetId="50" state="visible" r:id="rId50"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ratio" sheetId="51" state="visible" r:id="rId51"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="QuantityRange" sheetId="52" state="visible" r:id="rId52"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UnitConcept" sheetId="53" state="visible" r:id="rId53"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Agent" sheetId="54" state="visible" r:id="rId54"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Person" sheetId="55" state="visible" r:id="rId55"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Organization" sheetId="56" state="visible" r:id="rId56"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutomatedAgent" sheetId="57" state="visible" r:id="rId57"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LifeEvent" sheetId="58" state="visible" r:id="rId58"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CreativeWork" sheetId="59" state="visible" r:id="rId59"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Service" sheetId="60" state="visible" r:id="rId60"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MoneyQuantity" sheetId="61" state="visible" r:id="rId61"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CurrencyConcept" sheetId="62" state="visible" r:id="rId62"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FinancialProduct" sheetId="63" state="visible" r:id="rId63"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FinancialAccount" sheetId="64" state="visible" r:id="rId64"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FinancialOrganization" sheetId="65" state="visible" r:id="rId65"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="QuantityKind" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quantity" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleQuantity" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ratio" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="QuantityRange" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UnitConcept" sheetId="52" state="visible" r:id="rId52"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Agent" sheetId="53" state="visible" r:id="rId53"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Person" sheetId="54" state="visible" r:id="rId54"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Organization" sheetId="55" state="visible" r:id="rId55"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutomatedAgent" sheetId="56" state="visible" r:id="rId56"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LifeEvent" sheetId="57" state="visible" r:id="rId57"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CreativeWork" sheetId="58" state="visible" r:id="rId58"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Service" sheetId="59" state="visible" r:id="rId59"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MoneyQuantity" sheetId="60" state="visible" r:id="rId60"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CurrencyConcept" sheetId="61" state="visible" r:id="rId61"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FinancialProduct" sheetId="62" state="visible" r:id="rId62"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FinancialAccount" sheetId="63" state="visible" r:id="rId63"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FinancialOrganization" sheetId="64" state="visible" r:id="rId64"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Observation" sheetId="65" state="visible" r:id="rId65"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Measurement" sheetId="66" state="visible" r:id="rId66"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variable" sheetId="67" state="visible" r:id="rId67"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PowerPlant" sheetId="68" state="visible" r:id="rId68"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PowerPlantType" sheetId="69" state="visible" r:id="rId69"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FossilFuelPlant" sheetId="70" state="visible" r:id="rId70"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NuclearPlant" sheetId="71" state="visible" r:id="rId71"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RenewablePlant" sheetId="72" state="visible" r:id="rId72"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HydroelectricPlant" sheetId="73" state="visible" r:id="rId73"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SolarPlant" sheetId="74" state="visible" r:id="rId74"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WindFarm" sheetId="75" state="visible" r:id="rId75"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ElectricalGrid" sheetId="76" state="visible" r:id="rId76"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Event" sheetId="77" state="visible" r:id="rId77"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TimePointOrTemporalInterval" sheetId="78" state="visible" r:id="rId78"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TemporalInterval" sheetId="79" state="visible" r:id="rId79"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TimePoint" sheetId="80" state="visible" r:id="rId80"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Duration" sheetId="81" state="visible" r:id="rId81"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TemporalRelationship" sheetId="82" state="visible" r:id="rId82"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ExecutionOfProcedure" sheetId="83" state="visible" r:id="rId83"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PlannedProcessConfiguration" sheetId="84" state="visible" r:id="rId84"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PlannedProcess" sheetId="85" state="visible" r:id="rId85"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComputationalPlannedProcess" sheetId="86" state="visible" r:id="rId86"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MaterialCollection" sheetId="87" state="visible" r:id="rId87"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MaterialProcessing" sheetId="88" state="visible" r:id="rId88"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ExtractiveIndustryFacility" sheetId="89" state="visible" r:id="rId89"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MiningFacility" sheetId="90" state="visible" r:id="rId90"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WellFacility" sheetId="91" state="visible" r:id="rId91"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="QuarryFacility" sheetId="92" state="visible" r:id="rId92"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ExtractiveIndustryEquipment" sheetId="93" state="visible" r:id="rId93"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ExtractiveIndustryProduct" sheetId="94" state="visible" r:id="rId94"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ExtractiveIndustryWaste" sheetId="95" state="visible" r:id="rId95"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EnvironmentalSite" sheetId="96" state="visible" r:id="rId96"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FoodRecipe" sheetId="97" state="visible" r:id="rId97"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FoodIngredient" sheetId="98" state="visible" r:id="rId98"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FoodProcessing" sheetId="99" state="visible" r:id="rId99"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FoodTypeConcept" sheetId="100" state="visible" r:id="rId100"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFoodType" sheetId="101" state="visible" r:id="rId101"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompositeFoodType" sheetId="102" state="visible" r:id="rId102"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prediction" sheetId="103" state="visible" r:id="rId103"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimplePrediction" sheetId="104" state="visible" r:id="rId104"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AggregatePrediction" sheetId="105" state="visible" r:id="rId105"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PredictionSummaryStatistics" sheetId="106" state="visible" r:id="rId106"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="QualitativeObservation" sheetId="67" state="visible" r:id="rId67"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variable" sheetId="68" state="visible" r:id="rId68"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PowerPlant" sheetId="69" state="visible" r:id="rId69"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PowerPlantType" sheetId="70" state="visible" r:id="rId70"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FossilFuelPlant" sheetId="71" state="visible" r:id="rId71"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NuclearPlant" sheetId="72" state="visible" r:id="rId72"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RenewablePlant" sheetId="73" state="visible" r:id="rId73"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HydroelectricPlant" sheetId="74" state="visible" r:id="rId74"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SolarPlant" sheetId="75" state="visible" r:id="rId75"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WindFarm" sheetId="76" state="visible" r:id="rId76"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ElectricalGrid" sheetId="77" state="visible" r:id="rId77"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Event" sheetId="78" state="visible" r:id="rId78"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TimePointOrTemporalInterval" sheetId="79" state="visible" r:id="rId79"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TemporalInterval" sheetId="80" state="visible" r:id="rId80"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TimePoint" sheetId="81" state="visible" r:id="rId81"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Duration" sheetId="82" state="visible" r:id="rId82"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TemporalRelationship" sheetId="83" state="visible" r:id="rId83"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ExecutionOfProcedure" sheetId="84" state="visible" r:id="rId84"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PlannedProcessConfiguration" sheetId="85" state="visible" r:id="rId85"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PlannedProcess" sheetId="86" state="visible" r:id="rId86"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComputationalPlannedProcess" sheetId="87" state="visible" r:id="rId87"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MaterialCollection" sheetId="88" state="visible" r:id="rId88"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MaterialProcessing" sheetId="89" state="visible" r:id="rId89"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ExtractiveIndustryFacility" sheetId="90" state="visible" r:id="rId90"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MiningFacility" sheetId="91" state="visible" r:id="rId91"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WellFacility" sheetId="92" state="visible" r:id="rId92"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="QuarryFacility" sheetId="93" state="visible" r:id="rId93"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ExtractiveIndustryEquipment" sheetId="94" state="visible" r:id="rId94"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ExtractiveIndustryProduct" sheetId="95" state="visible" r:id="rId95"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ExtractiveIndustryWaste" sheetId="96" state="visible" r:id="rId96"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EnvironmentalSite" sheetId="97" state="visible" r:id="rId97"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FoodRecipe" sheetId="98" state="visible" r:id="rId98"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FoodIngredient" sheetId="99" state="visible" r:id="rId99"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FoodProcessing" sheetId="100" state="visible" r:id="rId100"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FoodTypeConcept" sheetId="101" state="visible" r:id="rId101"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFoodType" sheetId="102" state="visible" r:id="rId102"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompositeFoodType" sheetId="103" state="visible" r:id="rId103"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prediction" sheetId="104" state="visible" r:id="rId104"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimplePrediction" sheetId="105" state="visible" r:id="rId105"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AggregatePrediction" sheetId="106" state="visible" r:id="rId106"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PredictionSummaryStatistics" sheetId="107" state="visible" r:id="rId107"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -575,6 +576,87 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:L1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>follows_procedure</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>uses_physical_device</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>uses_configuration</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>starts_at</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>ends_at</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>happens_at</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>has_interval</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>has_duration</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>is_ongoing_as_of</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -605,7 +687,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -641,7 +723,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -677,7 +759,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -718,7 +800,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -769,7 +851,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -850,7 +932,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3128,67 +3210,201 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>starts_at</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ends_at</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>happens_at</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>has_interval</t>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>has_quantity_kind</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>has_quantity_kind</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ontology_types</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>has_duration</t>
+          <t>name</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>is_ongoing_as_of</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+          <t>type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>numerator</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>denominator</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>has_quantity_kind</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3205,57 +3421,62 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>has_quantity_kind</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+          <t>lower_bound</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>upper_bound</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3306,212 +3527,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>unit</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>has_quantity_kind</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>numerator</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>denominator</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>has_quantity_kind</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>lower_bound</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>upper_bound</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ontology_types</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3587,12 +3603,467 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>provides_services</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>ontology_types</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ontology_types</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>starts_at</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ends_at</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>happens_at</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>has_interval</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>has_duration</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>is_ongoing_as_of</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>abstract</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>rights</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>creators</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>contributors</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>contacts</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>keywords</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>ontology_types</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>has_quantity_kind</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>account_number</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>bank</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>account_holder</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3643,210 +4114,382 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>observation_subject</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>variable_measured</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>measured_using</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>starts_at</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>ends_at</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>happens_at</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>has_interval</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>has_duration</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>is_ongoing_as_of</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>quantity_measured</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>observation_subject</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>variable_measured</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>measured_using</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>starts_at</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ends_at</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>happens_at</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>has_interval</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>has_duration</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>is_ongoing_as_of</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>observation_subject</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>variable_measured</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>measured_using</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>starts_at</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>ends_at</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>happens_at</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>has_interval</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>has_duration</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>is_ongoing_as_of</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>allowed_units</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>plant_type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>operator</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>capacity</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>commissioning_date</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>decommissioning_date</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>capex</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>opex</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>located_at_place</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
         <is>
           <t>classification</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>ontology_types</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>starts_at</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ends_at</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>happens_at</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>has_interval</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>has_duration</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>is_ongoing_as_of</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:M1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>abstract</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>rights</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>creators</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>contributors</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>contacts</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>keywords</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>ontology_types</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>type</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3872,74 +4515,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>unit</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>has_quantity_kind</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3975,395 +4551,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>account_number</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>bank</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>account_holder</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>provides_services</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>ontology_types</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>quantity_measured</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>variable_measured</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>starts_at</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>ends_at</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>happens_at</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>has_interval</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>has_duration</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>is_ongoing_as_of</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>allowed_units</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:O1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>plant_type</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>location</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>operator</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>capacity</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>commissioning_date</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>decommissioning_date</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>capex</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>opex</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>located_at_place</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>ontology_types</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4469,7 +4657,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4565,7 +4753,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4661,7 +4849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4762,7 +4950,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4858,7 +5046,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4954,7 +5142,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5010,7 +5198,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5076,7 +5264,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5112,7 +5300,48 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>describes</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5148,48 +5377,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>describes</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5255,7 +5443,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5286,7 +5474,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5327,7 +5515,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5393,7 +5581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5419,7 +5607,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5500,7 +5688,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5601,7 +5789,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5682,7 +5870,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5763,7 +5951,48 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>describes</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5854,48 +6083,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>describes</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6004,7 +6192,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6108,7 +6296,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6199,7 +6387,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6250,7 +6438,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6306,7 +6494,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6342,7 +6530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6408,7 +6596,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6459,7 +6647,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6488,85 +6676,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>follows_procedure</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>uses_physical_device</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>uses_configuration</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>starts_at</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>ends_at</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>happens_at</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>has_interval</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>has_duration</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>is_ongoing_as_of</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>